--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Vcam1-Itga4.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Vcam1-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.24453389530925</v>
+        <v>8.426422666666666</v>
       </c>
       <c r="H2">
-        <v>5.24453389530925</v>
+        <v>25.279268</v>
       </c>
       <c r="I2">
-        <v>0.08069544677478313</v>
+        <v>0.1151758588783328</v>
       </c>
       <c r="J2">
-        <v>0.08069544677478313</v>
+        <v>0.1151758588783328</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.50017711614299</v>
+        <v>22.906497</v>
       </c>
       <c r="N2">
-        <v>1.50017711614299</v>
+        <v>68.719491</v>
       </c>
       <c r="O2">
-        <v>0.5686675147019691</v>
+        <v>0.9446038650914245</v>
       </c>
       <c r="P2">
-        <v>0.5686675147019691</v>
+        <v>0.9446038650914245</v>
       </c>
       <c r="Q2">
-        <v>7.867729734579193</v>
+        <v>193.019825534732</v>
       </c>
       <c r="R2">
-        <v>7.867729734579193</v>
+        <v>1737.178429812588</v>
       </c>
       <c r="S2">
-        <v>0.04588887916518095</v>
+        <v>0.1087955614616976</v>
       </c>
       <c r="T2">
-        <v>0.04588887916518095</v>
+        <v>0.1087955614616976</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.24453389530925</v>
+        <v>8.426422666666666</v>
       </c>
       <c r="H3">
-        <v>5.24453389530925</v>
+        <v>25.279268</v>
       </c>
       <c r="I3">
-        <v>0.08069544677478313</v>
+        <v>0.1151758588783328</v>
       </c>
       <c r="J3">
-        <v>0.08069544677478313</v>
+        <v>0.1151758588783328</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.1378795291873</v>
+        <v>0.1329193333333333</v>
       </c>
       <c r="N3">
-        <v>1.1378795291873</v>
+        <v>0.3987579999999999</v>
       </c>
       <c r="O3">
-        <v>0.4313324852980309</v>
+        <v>0.005481244732096839</v>
       </c>
       <c r="P3">
-        <v>0.4313324852980309</v>
+        <v>0.005481244732096839</v>
       </c>
       <c r="Q3">
-        <v>5.967647759601327</v>
+        <v>1.120034483238222</v>
       </c>
       <c r="R3">
-        <v>5.967647759601327</v>
+        <v>10.080310349144</v>
       </c>
       <c r="S3">
-        <v>0.03480656760960218</v>
+        <v>0.0006313070697415905</v>
       </c>
       <c r="T3">
-        <v>0.03480656760960218</v>
+        <v>0.0006313070697415905</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.5386694558981</v>
+        <v>8.426422666666666</v>
       </c>
       <c r="H4">
-        <v>11.5386694558981</v>
+        <v>25.279268</v>
       </c>
       <c r="I4">
-        <v>0.1775406748277554</v>
+        <v>0.1151758588783328</v>
       </c>
       <c r="J4">
-        <v>0.1775406748277554</v>
+        <v>0.1151758588783328</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.50017711614299</v>
+        <v>1.210428333333333</v>
       </c>
       <c r="N4">
-        <v>1.50017711614299</v>
+        <v>3.631285</v>
       </c>
       <c r="O4">
-        <v>0.5686675147019691</v>
+        <v>0.04991489017647865</v>
       </c>
       <c r="P4">
-        <v>0.5686675147019691</v>
+        <v>0.04991489017647865</v>
       </c>
       <c r="Q4">
-        <v>17.31004786847642</v>
+        <v>10.19958074437555</v>
       </c>
       <c r="R4">
-        <v>17.31004786847642</v>
+        <v>91.79622669938</v>
       </c>
       <c r="S4">
-        <v>0.1009616143128101</v>
+        <v>0.005748990346893585</v>
       </c>
       <c r="T4">
-        <v>0.1009616143128101</v>
+        <v>0.005748990346893584</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.5386694558981</v>
+        <v>11.78712033333333</v>
       </c>
       <c r="H5">
-        <v>11.5386694558981</v>
+        <v>35.361361</v>
       </c>
       <c r="I5">
-        <v>0.1775406748277554</v>
+        <v>0.1611112760180311</v>
       </c>
       <c r="J5">
-        <v>0.1775406748277554</v>
+        <v>0.1611112760180311</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.1378795291873</v>
+        <v>22.906497</v>
       </c>
       <c r="N5">
-        <v>1.1378795291873</v>
+        <v>68.719491</v>
       </c>
       <c r="O5">
-        <v>0.4313324852980309</v>
+        <v>0.9446038650914245</v>
       </c>
       <c r="P5">
-        <v>0.4313324852980309</v>
+        <v>0.9446038650914245</v>
       </c>
       <c r="Q5">
-        <v>13.12961576792521</v>
+        <v>270.0016365541391</v>
       </c>
       <c r="R5">
-        <v>13.12961576792521</v>
+        <v>2430.014728987251</v>
       </c>
       <c r="S5">
-        <v>0.07657906051494527</v>
+        <v>0.1521863340364435</v>
       </c>
       <c r="T5">
-        <v>0.07657906051494527</v>
+        <v>0.1521863340364435</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.2084920284152</v>
+        <v>11.78712033333333</v>
       </c>
       <c r="H6">
-        <v>48.2084920284152</v>
+        <v>35.361361</v>
       </c>
       <c r="I6">
-        <v>0.7417638783974614</v>
+        <v>0.1611112760180311</v>
       </c>
       <c r="J6">
-        <v>0.7417638783974614</v>
+        <v>0.1611112760180311</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.50017711614299</v>
+        <v>0.1329193333333333</v>
       </c>
       <c r="N6">
-        <v>1.50017711614299</v>
+        <v>0.3987579999999999</v>
       </c>
       <c r="O6">
-        <v>0.5686675147019691</v>
+        <v>0.005481244732096839</v>
       </c>
       <c r="P6">
-        <v>0.5686675147019691</v>
+        <v>0.005481244732096839</v>
       </c>
       <c r="Q6">
-        <v>72.32127654479024</v>
+        <v>1.566736176626444</v>
       </c>
       <c r="R6">
-        <v>72.32127654479024</v>
+        <v>14.100625589638</v>
       </c>
       <c r="S6">
-        <v>0.421817021223978</v>
+        <v>0.0008830903329552329</v>
       </c>
       <c r="T6">
-        <v>0.421817021223978</v>
+        <v>0.0008830903329552329</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>48.2084920284152</v>
+        <v>11.78712033333333</v>
       </c>
       <c r="H7">
-        <v>48.2084920284152</v>
+        <v>35.361361</v>
       </c>
       <c r="I7">
-        <v>0.7417638783974614</v>
+        <v>0.1611112760180311</v>
       </c>
       <c r="J7">
-        <v>0.7417638783974614</v>
+        <v>0.1611112760180311</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.1378795291873</v>
+        <v>1.210428333333333</v>
       </c>
       <c r="N7">
-        <v>1.1378795291873</v>
+        <v>3.631285</v>
       </c>
       <c r="O7">
-        <v>0.4313324852980309</v>
+        <v>0.04991489017647865</v>
       </c>
       <c r="P7">
-        <v>0.4313324852980309</v>
+        <v>0.04991489017647865</v>
       </c>
       <c r="Q7">
-        <v>54.8554562121228</v>
+        <v>14.26746441987611</v>
       </c>
       <c r="R7">
-        <v>54.8554562121228</v>
+        <v>128.407179778885</v>
       </c>
       <c r="S7">
-        <v>0.3199468571734834</v>
+        <v>0.008041851648632362</v>
       </c>
       <c r="T7">
-        <v>0.3199468571734834</v>
+        <v>0.008041851648632362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>52.94781866666667</v>
+      </c>
+      <c r="H8">
+        <v>158.843456</v>
+      </c>
+      <c r="I8">
+        <v>0.7237128651036362</v>
+      </c>
+      <c r="J8">
+        <v>0.7237128651036362</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>22.906497</v>
+      </c>
+      <c r="N8">
+        <v>68.719491</v>
+      </c>
+      <c r="O8">
+        <v>0.9446038650914245</v>
+      </c>
+      <c r="P8">
+        <v>0.9446038650914245</v>
+      </c>
+      <c r="Q8">
+        <v>1212.849049444544</v>
+      </c>
+      <c r="R8">
+        <v>10915.6414450009</v>
+      </c>
+      <c r="S8">
+        <v>0.6836219695932835</v>
+      </c>
+      <c r="T8">
+        <v>0.6836219695932835</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>52.94781866666667</v>
+      </c>
+      <c r="H9">
+        <v>158.843456</v>
+      </c>
+      <c r="I9">
+        <v>0.7237128651036362</v>
+      </c>
+      <c r="J9">
+        <v>0.7237128651036362</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.1329193333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.3987579999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.005481244732096839</v>
+      </c>
+      <c r="P9">
+        <v>0.005481244732096839</v>
+      </c>
+      <c r="Q9">
+        <v>7.037788758627554</v>
+      </c>
+      <c r="R9">
+        <v>63.34009882764799</v>
+      </c>
+      <c r="S9">
+        <v>0.003966847329400017</v>
+      </c>
+      <c r="T9">
+        <v>0.003966847329400017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>52.94781866666667</v>
+      </c>
+      <c r="H10">
+        <v>158.843456</v>
+      </c>
+      <c r="I10">
+        <v>0.7237128651036362</v>
+      </c>
+      <c r="J10">
+        <v>0.7237128651036362</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.210428333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.631285</v>
+      </c>
+      <c r="O10">
+        <v>0.04991489017647865</v>
+      </c>
+      <c r="P10">
+        <v>0.04991489017647865</v>
+      </c>
+      <c r="Q10">
+        <v>64.08953990232889</v>
+      </c>
+      <c r="R10">
+        <v>576.80585912096</v>
+      </c>
+      <c r="S10">
+        <v>0.03612404818095271</v>
+      </c>
+      <c r="T10">
+        <v>0.03612404818095271</v>
       </c>
     </row>
   </sheetData>
